--- a/upload_files/data_emgineer_jr__booking_data_engineer_senior.xlsx
+++ b/upload_files/data_emgineer_jr__booking_data_engineer_senior.xlsx
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
